--- a/virtualization/docs/resource_allocation_audit_TEMPLATE.xlsx
+++ b/virtualization/docs/resource_allocation_audit_TEMPLATE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vespe\source\repos\SQLServer_VENV\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vespe\source\repos\SQLServer_VENV\virtualization\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6348256-3D85-424C-B327-4B62DF608407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0508BF-46E6-4821-BDFE-DAF38FCAED21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29115" yWindow="3030" windowWidth="19845" windowHeight="12330" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hypervisor Host" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>Parameter</t>
   </si>
@@ -313,12 +313,24 @@
   <si>
     <t>Final production simulation</t>
   </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Processors</t>
+  </si>
+  <si>
+    <t>Cores per Processor</t>
+  </si>
+  <si>
+    <t>Memory (MB)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +358,12 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -554,15 +572,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D65F76DA-B669-42B3-8C6B-E5DEA8B3D884}" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:Q2" xr:uid="{D65F76DA-B669-42B3-8C6B-E5DEA8B3D884}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D65F76DA-B669-42B3-8C6B-E5DEA8B3D884}" name="Table3" displayName="Table3" ref="A1:U2" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:U2" xr:uid="{D65F76DA-B669-42B3-8C6B-E5DEA8B3D884}"/>
+  <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{02B1C0D7-B167-4A1D-87BD-E7A112BC1D1D}" name="VM Name"/>
     <tableColumn id="2" xr3:uid="{13FAA0F3-5ECB-4E27-AC38-A96EA3BF3A03}" name="Environment (Dev/Test/Prod)"/>
     <tableColumn id="3" xr3:uid="{CA425DCB-0C44-415E-BED2-A0C17612CD51}" name="Purpose / Role"/>
     <tableColumn id="4" xr3:uid="{7C17CBD5-887A-4C47-80C6-CAC6A5A290E4}" name="vCPU Count"/>
     <tableColumn id="5" xr3:uid="{ED2B4A29-11BD-4A4B-8E02-B34AB176BBCE}" name="RAM (GB)"/>
-    <tableColumn id="6" xr3:uid="{B21CD9CC-CF04-45F9-8B8A-EE0DEB8BC02A}" name="Storage - OS (GB)"/>
+    <tableColumn id="21" xr3:uid="{EDD5F0B4-4612-48CF-BB5A-8A2834E47441}" name="Storage - OS (GB)"/>
+    <tableColumn id="6" xr3:uid="{B21CD9CC-CF04-45F9-8B8A-EE0DEB8BC02A}" name="Memory (MB)"/>
+    <tableColumn id="18" xr3:uid="{61C0CCDB-8EFB-449C-8746-85F81BE822DF}" name="Processors"/>
+    <tableColumn id="19" xr3:uid="{C1B5166F-4B20-446C-B50F-A560D2BB5173}" name="Cores per Processor"/>
+    <tableColumn id="20" xr3:uid="{4B208A61-15E9-420B-BE9B-EC24BD462464}" name="Column3"/>
     <tableColumn id="7" xr3:uid="{393C3598-7D7A-4327-961D-EF27573B95FA}" name="Storage - Data (GB)"/>
     <tableColumn id="8" xr3:uid="{5D9524A1-034E-4664-8835-A2072C1CBCEE}" name="Expected IOPS"/>
     <tableColumn id="9" xr3:uid="{387A7B61-9AF2-4581-86C1-12A4024B90A8}" name="Backup Policy"/>
@@ -868,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1185,20 +1207,22 @@
     <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="20.21875" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
@@ -1218,40 +1242,53 @@
         <v>20</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
